--- a/CSV/Saved.xlsx
+++ b/CSV/Saved.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,10 +674,8 @@
           <t>papa</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9740384662</t>
-        </is>
+      <c r="D7" t="n">
+        <v>9740384662</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -697,6 +695,122 @@
       <c r="H7" t="inlineStr">
         <is>
           <t>Home</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fr</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>9846372599</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1994-09-15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Colleague</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fr</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>9846372599</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1994-09-15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Colleague</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jegan</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MR.Blue</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9944762713</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1999-09-15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Colleague</t>
         </is>
       </c>
     </row>
